--- a/dnf_log.xlsx
+++ b/dnf_log.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="234">
   <si>
     <t>7月24</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -729,6 +729,70 @@
   </si>
   <si>
     <t>12:00开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                 还有一个宝珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个50疲劳药, 1个小瓶ssbuff出了个武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00开始, 1:25连爆两个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13线爆一个后好久不出换33刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个20疲劳药  前面出了3ss一狗眼, 后面20把一个没出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:10 开始刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33线, 13线, 10线换刷没出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ss 一启明星, 一个垃圾武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:55  开始刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个宝珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00 开刷, 13:20时开始出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个50疲劳药, 2个20疲劳药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                              还有3个眼睛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 线, 其他线都不出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂缝1 天域护腿(重复)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1079,6 +1143,312 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 1" descr="C:\Users\admin\AppData\Roaming\Tencent\Users\252570037\QQ\WinTemp\RichOle\ZCG3~7P7$1O31A49FSY$T@9.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5010150" y="5610225"/>
+          <a:ext cx="1000125" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 2" descr="C:\Users\admin\AppData\Roaming\Tencent\Users\252570037\QQ\WinTemp\RichOle\JRPLI@GS{3E}((4~2U~MHOI.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6057900" y="5619750"/>
+          <a:ext cx="457200" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1" descr="C:\Users\admin\AppData\Roaming\Tencent\Users\252570037\QQ\WinTemp\RichOle\)M7D~Q0I]8}EJX_NH99Z1$E.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5610225" y="6448425"/>
+          <a:ext cx="1095375" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2" descr="C:\Users\admin\AppData\Roaming\Tencent\Users\252570037\QQ\WinTemp\RichOle\QQR%5d_2(0ZKME%AK(3DI.png"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5619750" y="6438900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1029" name="AutoShape 5" descr="C:\Users\admin\AppData\Roaming\Tencent\Users\252570037\QQ\WinTemp\RichOle\QQR%5d_2(0ZKME%AK(3DI.png"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8791575" y="6438900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="AutoShape 6" descr="C:\Users\admin\AppData\Roaming\Tencent\Users\252570037\QQ\WinTemp\RichOle\QQR%5d_2(0ZKME%AK(3DI.png"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12058650" y="6438900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6819900" y="6477000"/>
+          <a:ext cx="409575" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1895475</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 1" descr="C:\Users\admin\AppData\Roaming\Tencent\Users\773727799\QQ\WinTemp\RichOle\2F2{6PZ_J@Q7J{}{]8~KRHB.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5619750" y="7877175"/>
+          <a:ext cx="1895475" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1369,16 +1739,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="2" max="3" width="27.875" customWidth="1"/>
     <col min="5" max="5" width="41.625" customWidth="1"/>
-    <col min="6" max="6" width="42.875" customWidth="1"/>
+    <col min="6" max="6" width="65.75" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="13" max="13" width="35" customWidth="1"/>
   </cols>
@@ -1872,7 +2241,7 @@
         <v>212</v>
       </c>
       <c r="D24">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
         <v>200</v>
@@ -1895,7 +2264,7 @@
         <v>212</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
         <v>213</v>
@@ -1915,7 +2284,7 @@
         <v>214</v>
       </c>
       <c r="D26">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s">
         <v>215</v>
@@ -1928,30 +2297,96 @@
       <c r="A27" t="s">
         <v>26</v>
       </c>
+      <c r="D27">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="D28">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="65.25" customHeight="1">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="B29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29">
+        <v>54</v>
+      </c>
+      <c r="E29" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="77.25" customHeight="1">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="B30" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="36" customHeight="1">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="B31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="56.25" customHeight="1">
       <c r="A32" t="s">
         <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>229</v>
+      </c>
+      <c r="C32" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32">
+        <v>69</v>
+      </c>
+      <c r="E32" t="s">
+        <v>231</v>
+      </c>
+      <c r="F32" t="s">
+        <v>230</v>
+      </c>
+      <c r="M32" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:1">

--- a/dnf_log.xlsx
+++ b/dnf_log.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="238">
   <si>
     <t>7月24</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -793,6 +793,22 @@
   </si>
   <si>
     <t>裂缝1 天域护腿(重复)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00 开刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深渊0, 裂缝1ss 90臂铠,3狗眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂缝1 90ss臂铠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1739,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2303,6 +2319,9 @@
       <c r="E27" t="s">
         <v>226</v>
       </c>
+      <c r="M27" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
@@ -2314,6 +2333,9 @@
       <c r="E28" t="s">
         <v>225</v>
       </c>
+      <c r="M28" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="65.25" customHeight="1">
       <c r="A29" t="s">
@@ -2334,6 +2356,9 @@
       <c r="F29" t="s">
         <v>219</v>
       </c>
+      <c r="M29" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="30" spans="1:13" ht="77.25" customHeight="1">
       <c r="A30" t="s">
@@ -2351,6 +2376,9 @@
       <c r="F30" t="s">
         <v>222</v>
       </c>
+      <c r="M30" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="31" spans="1:13" ht="36" customHeight="1">
       <c r="A31" t="s">
@@ -2365,6 +2393,9 @@
       <c r="E31" t="s">
         <v>228</v>
       </c>
+      <c r="M31" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="32" spans="1:13" ht="56.25" customHeight="1">
       <c r="A32" t="s">
@@ -2389,82 +2420,97 @@
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:13" ht="67.5" customHeight="1">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D33">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>236</v>
+      </c>
+      <c r="M33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>47</v>
       </c>

--- a/dnf_log.xlsx
+++ b/dnf_log.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="242">
   <si>
     <t>7月24</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -809,6 +809,22 @@
   </si>
   <si>
     <t>裂缝1 90ss臂铠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00开刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂缝0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2晶石    11 闪 14灵魂 28宝珠 32灵魂 43宝珠 44闪 45灵魂 46闪 61闪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1465,6 +1481,166 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 1" descr="C:\Users\admin\AppData\Roaming\Tencent\Users\252570037\QQ\WinTemp\RichOle\[%IXL6`74NQ4E]N``H~LDR1.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5619750" y="10134600"/>
+          <a:ext cx="1571625" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2152650</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 2" descr="C:\Users\admin\AppData\Roaming\Tencent\Users\252570037\QQ\WinTemp\RichOle\Z3D{V@R(Y5J%4J_26K5YZ$A.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7191375" y="10248900"/>
+          <a:ext cx="581025" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>752475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 3" descr="C:\Users\admin\AppData\Roaming\Tencent\Users\252570037\QQ\WinTemp\RichOle\`(2VX7RQUT$1N))~@[ENY9B.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5638800" y="10887075"/>
+          <a:ext cx="495300" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 5" descr="C:\Users\admin\AppData\Roaming\Tencent\Users\252570037\QQ\WinTemp\RichOle\B_V}PSEJ7@Y{]U4_4O5`M7J.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15116175" y="10125075"/>
+          <a:ext cx="3133725" cy="1476375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1755,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2460,9 +2636,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" ht="111" customHeight="1">
       <c r="A38" t="s">
         <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" t="s">
+        <v>239</v>
+      </c>
+      <c r="D38">
+        <v>62</v>
+      </c>
+      <c r="F38" t="s">
+        <v>241</v>
+      </c>
+      <c r="M38" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:13">

--- a/dnf_log.xlsx
+++ b/dnf_log.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="248">
   <si>
     <t>7月24</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -825,6 +825,30 @@
   </si>
   <si>
     <t>2晶石    11 闪 14灵魂 28宝珠 32灵魂 43宝珠 44闪 45灵魂 46闪 61闪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深渊4, 裂缝0 1加百利, 3狗眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3狗眼  9灵魂 14冰雪戒指  19 嗜血鞋子 21辉煌耀世 30灵魂  31 别云   36加百利 53灵魂 60无 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂缝0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00开刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13x, 换到33线, 有人刷52x出清泉, 去52出了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2狗眼, 9ss, 其中裂缝2ss(一把85镰刀, 一个杀意护肩, 杀意齐了)还有一个宝珠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1641,6 +1665,46 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2686050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 1" descr="C:\Users\admin\Documents\Tencent Files\773727799\Image\Group\KK5SW(}JP_E`EC4%}(4LOQI.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5619750" y="12687300"/>
+          <a:ext cx="2686050" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1931,13 +1995,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="27.875" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="40.875" customWidth="1"/>
     <col min="5" max="5" width="41.625" customWidth="1"/>
     <col min="6" max="6" width="65.75" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
@@ -2656,14 +2721,38 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" ht="90" customHeight="1">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="D39">
+        <v>60</v>
+      </c>
+      <c r="E39" t="s">
+        <v>242</v>
+      </c>
+      <c r="F39" t="s">
+        <v>243</v>
+      </c>
+      <c r="M39" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="112.5" customHeight="1">
       <c r="A40" t="s">
         <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>245</v>
+      </c>
+      <c r="C40" t="s">
+        <v>246</v>
+      </c>
+      <c r="D40">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:13">
